--- a/document/api/아기정보_api.xlsx
+++ b/document/api/아기정보_api.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,12 +176,60 @@
     <t>/growth/select</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>아기 정보 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/baby/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baby_name:string
+code:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 diary 불러오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/baby/load:code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baby_name:string
+*json 배열로 보내짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기 = 앨범이다.
+따라서 앨범 저장 및 삭제, 수정은
+baby 카테고리에서 해결한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +242,22 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -220,11 +284,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -633,7 +706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="87" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="174" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -655,71 +728,72 @@
       <c r="I3">
         <v>404</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="87" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="J3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2">
+        <v>201</v>
+      </c>
+      <c r="I4" s="2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2">
+        <v>201</v>
+      </c>
+      <c r="I5" s="2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="87" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H4">
-        <v>201</v>
-      </c>
-      <c r="I4">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="87" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>201</v>
-      </c>
-      <c r="I5">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H6">
         <v>201</v>
@@ -728,23 +802,66 @@
         <v>404</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F8" s="1"/>
+    <row r="7" spans="1:10" ht="87" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>201</v>
+      </c>
+      <c r="I7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>201</v>
+      </c>
+      <c r="I8">
+        <v>404</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="G10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F13" s="1"/>
@@ -757,10 +874,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G17" s="1"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.4">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.4">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.4">
+      <c r="G19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
